--- a/Data/mariculture_fish_province.xlsx
+++ b/Data/mariculture_fish_province.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AquaFish\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23580" windowHeight="11460" tabRatio="946" firstSheet="14" activeTab="32"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23580" windowHeight="11460" tabRatio="946" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="38" r:id="rId1"/>
@@ -1683,7 +1688,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1988,7 +1993,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2000,9 +2005,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -2040,7 +2045,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2069,7 +2074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2086,7 +2091,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2109,12 +2114,12 @@
         <v>3972</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2140,7 +2145,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2175,7 +2180,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2213,7 +2218,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2242,7 +2247,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2280,7 +2285,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2303,7 +2308,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2340,9 +2345,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -2377,7 +2382,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2412,7 +2417,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2447,7 +2452,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2482,7 +2487,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2517,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2552,7 +2557,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2587,7 +2592,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2622,7 +2627,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2657,7 +2662,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2692,7 +2697,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2727,7 +2732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2773,9 +2778,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -2813,7 +2818,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2851,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2889,7 +2894,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2927,7 +2932,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2965,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3003,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3041,7 +3046,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3079,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3117,7 +3122,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3155,7 +3160,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3193,7 +3198,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3240,25 +3245,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -3296,7 +3301,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3325,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3357,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3392,7 +3397,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3421,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3453,7 +3458,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3486,7 +3491,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3524,7 +3529,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3557,7 +3562,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3595,7 +3600,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3631,7 +3636,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3677,9 +3682,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -3717,7 +3722,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3746,7 +3751,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3778,7 +3783,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3813,7 +3818,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3842,7 +3847,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3874,7 +3879,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3909,7 +3914,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3947,7 +3952,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3979,7 +3984,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4017,7 +4022,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4052,7 +4057,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4101,9 +4106,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -4111,7 +4116,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4119,7 +4124,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4127,7 +4132,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4135,7 +4140,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4143,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4151,7 +4156,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4159,7 +4164,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4167,7 +4172,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4175,7 +4180,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4183,7 +4188,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4191,7 +4196,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4210,9 +4215,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -4220,7 +4225,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4228,7 +4233,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4236,7 +4241,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4244,7 +4249,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4252,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4260,7 +4265,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4268,7 +4273,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4276,7 +4281,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4284,7 +4289,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4292,7 +4297,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4300,7 +4305,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4319,12 +4324,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -4332,7 +4337,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4340,7 +4345,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4348,7 +4353,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4356,7 +4361,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>542</v>
       </c>
@@ -4364,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4372,7 +4377,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4380,7 +4385,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4388,7 +4393,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4396,7 +4401,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4404,7 +4409,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4412,7 +4417,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4431,9 +4436,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -4441,7 +4446,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4449,7 +4454,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4457,7 +4462,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4465,7 +4470,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4473,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4481,7 +4486,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4489,7 +4494,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4497,7 +4502,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4505,7 +4510,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4513,7 +4518,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4521,7 +4526,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4540,9 +4545,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -4550,7 +4555,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4558,7 +4563,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4566,7 +4571,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4574,7 +4579,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4582,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4590,7 +4595,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4598,7 +4603,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4606,7 +4611,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4614,7 +4619,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4622,7 +4627,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4630,7 +4635,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4649,9 +4654,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -4659,7 +4664,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>400</v>
       </c>
@@ -4667,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4675,7 +4680,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4683,7 +4688,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4691,7 +4696,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4699,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4707,7 +4712,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4715,7 +4720,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4723,7 +4728,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4731,7 +4736,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4739,7 +4744,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4747,7 +4752,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4766,9 +4771,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -4806,7 +4811,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4835,7 +4840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4855,7 +4860,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4875,12 +4880,12 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4906,7 +4911,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4944,7 +4949,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4982,7 +4987,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5011,7 +5016,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5049,7 +5054,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5072,7 +5077,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5112,9 +5117,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -5122,7 +5127,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>400</v>
       </c>
@@ -5130,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5138,7 +5143,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5146,7 +5151,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5154,7 +5159,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5162,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5170,7 +5175,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5178,7 +5183,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5186,7 +5191,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5194,7 +5199,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5202,7 +5207,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5210,7 +5215,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5229,9 +5234,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -5239,7 +5244,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>400</v>
       </c>
@@ -5247,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5255,7 +5260,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5263,7 +5268,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5271,7 +5276,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5279,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5287,7 +5292,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5295,7 +5300,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5303,7 +5308,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5311,7 +5316,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5319,7 +5324,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5327,7 +5332,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5346,9 +5351,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -5356,7 +5361,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>400</v>
       </c>
@@ -5364,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5372,7 +5377,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5380,7 +5385,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>433</v>
       </c>
@@ -5388,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>434</v>
       </c>
@@ -5396,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -5404,7 +5409,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>435</v>
       </c>
@@ -5412,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>436</v>
       </c>
@@ -5420,7 +5425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5428,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -5436,7 +5441,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -5444,7 +5449,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>437</v>
       </c>
@@ -5452,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -5460,7 +5465,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>438</v>
       </c>
@@ -5468,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -5476,7 +5481,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>439</v>
       </c>
@@ -5484,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>440</v>
       </c>
@@ -5492,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>441</v>
       </c>
@@ -5500,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -5508,7 +5513,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -5516,7 +5521,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -5524,7 +5529,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>442</v>
       </c>
@@ -5532,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>443</v>
       </c>
@@ -5540,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>444</v>
       </c>
@@ -5548,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>445</v>
       </c>
@@ -5556,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>446</v>
       </c>
@@ -5564,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>447</v>
       </c>
@@ -5572,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>448</v>
       </c>
@@ -5580,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>449</v>
       </c>
@@ -5588,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>450</v>
       </c>
@@ -5607,9 +5612,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -5617,7 +5622,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>400</v>
       </c>
@@ -5625,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5633,7 +5638,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5641,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5649,7 +5654,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5657,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5665,7 +5670,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5673,7 +5678,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5681,7 +5686,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5689,7 +5694,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5697,7 +5702,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5705,7 +5710,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5724,9 +5729,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -5734,7 +5739,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>400</v>
       </c>
@@ -5742,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5750,7 +5755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5758,7 +5763,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>433</v>
       </c>
@@ -5766,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>434</v>
       </c>
@@ -5774,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -5782,7 +5787,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>435</v>
       </c>
@@ -5790,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>436</v>
       </c>
@@ -5798,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5806,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -5814,7 +5819,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -5822,7 +5827,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>437</v>
       </c>
@@ -5830,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -5838,7 +5843,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>438</v>
       </c>
@@ -5846,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -5854,7 +5859,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>439</v>
       </c>
@@ -5862,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>440</v>
       </c>
@@ -5870,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>441</v>
       </c>
@@ -5878,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -5886,7 +5891,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -5894,7 +5899,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -5902,7 +5907,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>442</v>
       </c>
@@ -5910,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>443</v>
       </c>
@@ -5918,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>444</v>
       </c>
@@ -5926,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>446</v>
       </c>
@@ -5934,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>447</v>
       </c>
@@ -5942,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>448</v>
       </c>
@@ -5950,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>449</v>
       </c>
@@ -5958,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>450</v>
       </c>
@@ -5977,9 +5982,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -5987,7 +5992,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>400</v>
       </c>
@@ -5995,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6003,7 +6008,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6011,7 +6016,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>433</v>
       </c>
@@ -6019,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>434</v>
       </c>
@@ -6027,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -6035,7 +6040,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>435</v>
       </c>
@@ -6043,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>436</v>
       </c>
@@ -6051,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -6059,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -6067,7 +6072,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -6075,7 +6080,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>437</v>
       </c>
@@ -6083,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -6091,7 +6096,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>438</v>
       </c>
@@ -6099,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -6107,7 +6112,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>439</v>
       </c>
@@ -6115,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>440</v>
       </c>
@@ -6123,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>441</v>
       </c>
@@ -6131,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -6139,7 +6144,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -6147,7 +6152,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -6155,7 +6160,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>442</v>
       </c>
@@ -6163,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>443</v>
       </c>
@@ -6171,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>444</v>
       </c>
@@ -6179,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>445</v>
       </c>
@@ -6187,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>446</v>
       </c>
@@ -6195,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>447</v>
       </c>
@@ -6203,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>448</v>
       </c>
@@ -6211,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>449</v>
       </c>
@@ -6219,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>450</v>
       </c>
@@ -6238,9 +6243,9 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -6248,12 +6253,12 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6261,22 +6266,22 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -6284,22 +6289,22 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -6307,7 +6312,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -6315,12 +6320,12 @@
         <v>577</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -6328,12 +6333,12 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -6341,22 +6346,22 @@
         <v>747</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -6364,7 +6369,7 @@
         <v>36851</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -6372,7 +6377,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -6380,42 +6385,42 @@
         <v>988</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>450</v>
       </c>
@@ -6431,9 +6436,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -6441,12 +6446,12 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6454,7 +6459,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6462,18 +6467,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>433</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -6481,19 +6486,19 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>435</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>436</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -6501,7 +6506,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -6509,7 +6514,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -6517,13 +6522,13 @@
         <v>492</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>437</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -6531,13 +6536,13 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>438</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -6545,22 +6550,22 @@
         <v>546</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -6568,7 +6573,7 @@
         <v>30529</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -6576,7 +6581,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -6584,42 +6589,42 @@
         <v>727</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>450</v>
       </c>
@@ -6635,9 +6640,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -6645,7 +6650,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>400</v>
       </c>
@@ -6653,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6661,7 +6666,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6669,7 +6674,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>433</v>
       </c>
@@ -6677,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>434</v>
       </c>
@@ -6685,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -6693,7 +6698,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>435</v>
       </c>
@@ -6701,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>436</v>
       </c>
@@ -6709,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -6717,7 +6722,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -6725,7 +6730,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -6733,7 +6738,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>437</v>
       </c>
@@ -6741,7 +6746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -6749,7 +6754,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>438</v>
       </c>
@@ -6757,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -6765,7 +6770,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>439</v>
       </c>
@@ -6773,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>440</v>
       </c>
@@ -6781,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>441</v>
       </c>
@@ -6789,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -6797,7 +6802,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -6805,7 +6810,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -6813,7 +6818,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>442</v>
       </c>
@@ -6821,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>443</v>
       </c>
@@ -6829,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>444</v>
       </c>
@@ -6837,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>445</v>
       </c>
@@ -6845,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>446</v>
       </c>
@@ -6853,7 +6858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>447</v>
       </c>
@@ -6861,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>448</v>
       </c>
@@ -6869,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>449</v>
       </c>
@@ -6877,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>450</v>
       </c>
@@ -6896,9 +6901,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -6906,7 +6911,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>400</v>
       </c>
@@ -6914,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6922,7 +6927,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6930,7 +6935,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>433</v>
       </c>
@@ -6938,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>434</v>
       </c>
@@ -6946,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -6954,7 +6959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>435</v>
       </c>
@@ -6962,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>486</v>
       </c>
@@ -6970,7 +6975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -6978,7 +6983,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -6986,7 +6991,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -6994,7 +6999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>437</v>
       </c>
@@ -7002,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -7010,7 +7015,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>438</v>
       </c>
@@ -7018,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -7026,7 +7031,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>439</v>
       </c>
@@ -7034,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>440</v>
       </c>
@@ -7042,7 +7047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>441</v>
       </c>
@@ -7050,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -7058,7 +7063,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -7066,7 +7071,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>442</v>
       </c>
@@ -7074,7 +7079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>443</v>
       </c>
@@ -7082,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>444</v>
       </c>
@@ -7090,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>445</v>
       </c>
@@ -7098,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>446</v>
       </c>
@@ -7106,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>447</v>
       </c>
@@ -7114,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>448</v>
       </c>
@@ -7133,9 +7138,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -7173,7 +7178,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7199,7 +7204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7219,7 +7224,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7242,12 +7247,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7273,7 +7278,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -7311,7 +7316,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7349,7 +7354,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -7381,7 +7386,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -7419,7 +7424,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -7442,7 +7447,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7482,9 +7487,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -7492,7 +7497,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>400</v>
       </c>
@@ -7500,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7508,7 +7513,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7516,7 +7521,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>433</v>
       </c>
@@ -7524,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>434</v>
       </c>
@@ -7532,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -7540,7 +7545,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>435</v>
       </c>
@@ -7548,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>486</v>
       </c>
@@ -7556,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -7564,7 +7569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -7572,7 +7577,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -7580,7 +7585,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>437</v>
       </c>
@@ -7588,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -7596,7 +7601,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>438</v>
       </c>
@@ -7604,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -7612,7 +7617,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>439</v>
       </c>
@@ -7620,7 +7625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>440</v>
       </c>
@@ -7628,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>441</v>
       </c>
@@ -7636,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -7644,7 +7649,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -7652,7 +7657,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>442</v>
       </c>
@@ -7660,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>443</v>
       </c>
@@ -7668,7 +7673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>444</v>
       </c>
@@ -7676,7 +7681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>445</v>
       </c>
@@ -7684,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>446</v>
       </c>
@@ -7692,7 +7697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>447</v>
       </c>
@@ -7700,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>448</v>
       </c>
@@ -7708,7 +7713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>449</v>
       </c>
@@ -7716,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>450</v>
       </c>
@@ -7735,12 +7740,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -7748,7 +7753,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>400</v>
       </c>
@@ -7756,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7764,7 +7769,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7772,7 +7777,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7780,7 +7785,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7788,7 +7793,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7796,7 +7801,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7804,7 +7809,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -7812,7 +7817,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7820,7 +7825,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -7828,7 +7833,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -7847,9 +7852,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -7857,7 +7862,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7865,7 +7870,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7873,7 +7878,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7881,7 +7886,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7889,7 +7894,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7897,7 +7902,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -7905,7 +7910,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7913,7 +7918,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -7921,7 +7926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -7929,7 +7934,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -7946,13 +7951,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -7960,7 +7965,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>400</v>
       </c>
@@ -7968,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7976,7 +7981,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7984,7 +7989,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>433</v>
       </c>
@@ -7992,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>434</v>
       </c>
@@ -8000,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -8008,7 +8013,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>435</v>
       </c>
@@ -8016,7 +8021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>436</v>
       </c>
@@ -8024,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -8032,7 +8037,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -8040,7 +8045,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -8048,7 +8053,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>437</v>
       </c>
@@ -8056,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -8064,7 +8069,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>438</v>
       </c>
@@ -8072,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -8080,7 +8085,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>439</v>
       </c>
@@ -8088,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>440</v>
       </c>
@@ -8096,7 +8101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>441</v>
       </c>
@@ -8104,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -8112,7 +8117,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -8120,7 +8125,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>442</v>
       </c>
@@ -8128,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>523</v>
       </c>
@@ -8136,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>443</v>
       </c>
@@ -8144,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>444</v>
       </c>
@@ -8152,7 +8157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>445</v>
       </c>
@@ -8160,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>446</v>
       </c>
@@ -8168,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>447</v>
       </c>
@@ -8176,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>448</v>
       </c>
@@ -8184,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>449</v>
       </c>
@@ -8192,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>450</v>
       </c>
@@ -8211,9 +8216,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -8251,7 +8256,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8280,7 +8285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8300,7 +8305,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8323,12 +8328,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8354,7 +8359,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -8389,7 +8394,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8427,7 +8432,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -8456,7 +8461,7 @@
         <v>7563</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -8494,7 +8499,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -8517,7 +8522,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8557,9 +8562,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -8597,7 +8602,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8627,7 +8632,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8641,7 +8646,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8666,12 +8671,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8701,7 +8706,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -8739,7 +8744,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8777,7 +8782,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -8809,7 +8814,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -8847,7 +8852,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -8873,7 +8878,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8915,9 +8920,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -8955,7 +8960,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8984,7 +8989,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9007,7 +9012,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9027,12 +9032,12 @@
         <v>5323</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9058,7 +9063,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9093,7 +9098,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9131,7 +9136,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9163,7 +9168,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -9201,7 +9206,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -9224,7 +9229,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9266,9 +9271,9 @@
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -9306,7 +9311,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9332,7 +9337,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9361,7 +9366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9381,12 +9386,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9412,7 +9417,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9447,7 +9452,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9485,7 +9490,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9517,7 +9522,7 @@
         <v>8777</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -9555,7 +9560,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -9578,7 +9583,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9618,12 +9623,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -9661,7 +9666,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9690,7 +9695,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9710,7 +9715,7 @@
         <v>4172</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9736,12 +9741,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9761,7 +9766,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9793,7 +9798,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9831,7 +9836,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9863,7 +9868,7 @@
         <v>7097</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -9901,7 +9906,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -9924,7 +9929,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9953,56 +9958,56 @@
         <v>11106</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="J19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="J20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="F21" s="1"/>
       <c r="J21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D22" s="1"/>
       <c r="F22" s="1"/>
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E23" s="1"/>
       <c r="I23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E25" s="1"/>
       <c r="I25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
       <c r="J29" s="1"/>
       <c r="L29" s="1"/>
@@ -10018,12 +10023,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -10061,7 +10066,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10099,7 +10104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10137,7 +10142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10175,7 +10180,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10213,7 +10218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10251,7 +10256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -10289,7 +10294,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10327,7 +10332,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -10365,7 +10370,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -10403,7 +10408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -10441,7 +10446,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
